--- a/src/uploads/ExcelResiduos/resultados_Modulo Residuos.xlsx
+++ b/src/uploads/ExcelResiduos/resultados_Modulo Residuos.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t>N Nic</t>
+    <t>N Nit</t>
   </si>
   <si>
     <t>Nombre del cliente</t>

--- a/src/uploads/ExcelResiduos/resultados_Modulo Residuos.xlsx
+++ b/src/uploads/ExcelResiduos/resultados_Modulo Residuos.xlsx
@@ -61,7 +61,7 @@
     <t>L Pelaez</t>
   </si>
   <si>
-    <t>Enero</t>
+    <t>Febrero</t>
   </si>
 </sst>
 </file>

--- a/src/uploads/ExcelResiduos/resultados_Modulo Residuos.xlsx
+++ b/src/uploads/ExcelResiduos/resultados_Modulo Residuos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>N Nit</t>
   </si>
@@ -28,6 +28,9 @@
     <t>Mes</t>
   </si>
   <si>
+    <t>Sede</t>
+  </si>
+  <si>
     <t>% Variacion Generación de Residuos</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
   </si>
   <si>
     <t>Febrero</t>
+  </si>
+  <si>
+    <t>Cali</t>
   </si>
 </sst>
 </file>
@@ -438,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -481,45 +487,51 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1234567890</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
         <v>40</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>25</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>50</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>20</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>150</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>33.33333333333333</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>40</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>200</v>
       </c>
     </row>

--- a/src/uploads/ExcelResiduos/resultados_Modulo Residuos.xlsx
+++ b/src/uploads/ExcelResiduos/resultados_Modulo Residuos.xlsx
@@ -67,7 +67,7 @@
     <t>Febrero</t>
   </si>
   <si>
-    <t>Cali</t>
+    <t>Pereira</t>
   </si>
 </sst>
 </file>
@@ -493,7 +493,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1234567890</v>
+        <v>12345678445</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>

--- a/src/uploads/ExcelResiduos/resultados_Modulo Residuos.xlsx
+++ b/src/uploads/ExcelResiduos/resultados_Modulo Residuos.xlsx
@@ -64,7 +64,7 @@
     <t>L Pelaez</t>
   </si>
   <si>
-    <t>Febrero</t>
+    <t>Marzo</t>
   </si>
   <si>
     <t>Pereira</t>
@@ -526,7 +526,7 @@
         <v>150</v>
       </c>
       <c r="L2">
-        <v>33.33333333333333</v>
+        <v>-133.33333333333331</v>
       </c>
       <c r="M2">
         <v>40</v>
